--- a/odds.xlsx
+++ b/odds.xlsx
@@ -1,99 +1,79 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\CheZhiCheng\PycharmProjects\his\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12765"/>
+    <workbookView windowWidth="25600" windowHeight="12310" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet1 (3)" sheetId="3" r:id="rId2"/>
-    <sheet name="Sheet1 (2)" sheetId="2" r:id="rId3"/>
+    <sheet name="Sheet1 (4)" sheetId="4" r:id="rId2"/>
+    <sheet name="Sheet1 (5)" sheetId="5" r:id="rId3"/>
+    <sheet name="Sheet1 (3)" sheetId="3" r:id="rId4"/>
+    <sheet name="Sheet1 (2)" sheetId="2" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="152511"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-  </extLst>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="13">
+  <si>
+    <t>比分</t>
+  </si>
+  <si>
+    <t>ODDS</t>
+  </si>
+  <si>
+    <t>WIN</t>
+  </si>
+  <si>
+    <t>ROI</t>
+  </si>
   <si>
     <t>a</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>2:0</t>
   </si>
   <si>
     <t>b</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>2:1</t>
   </si>
   <si>
     <t>c</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>0:2</t>
   </si>
   <si>
     <t>d</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>ROI</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>WIN</t>
-    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>e</t>
-    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>f</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>2:0</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>2:1</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>0:2</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>1:2</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>比分</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>ODDS</t>
-    <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="7" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="24">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -101,15 +81,6 @@
       <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="宋体"/>
-      <family val="2"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -117,14 +88,6 @@
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
-      <family val="2"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -133,7 +96,6 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -142,12 +104,155 @@
       <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -157,21 +262,197 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -179,69 +460,347 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="33" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="7">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="2" fillId="3" borderId="0" xfId="32" applyNumberFormat="1" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="32" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="20" fontId="3" fillId="3" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="2" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="1" fillId="2" borderId="0" xfId="1" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="20" fontId="3" fillId="4" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="2" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="20" fontId="3" fillId="3" borderId="0" xfId="2" quotePrefix="1" applyNumberFormat="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="1" fillId="2" borderId="0" xfId="7" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="2" fillId="4" borderId="0" xfId="32" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="32" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="7" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="20" fontId="2" fillId="4" borderId="0" xfId="32" applyNumberFormat="1" applyFont="1" quotePrefix="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="3">
-    <cellStyle name="差" xfId="1" builtinId="27"/>
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="适中" xfId="2" builtinId="28"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -290,7 +849,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -325,7 +884,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -499,261 +1058,608 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:L13"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A2:L12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
   <cols>
-    <col min="4" max="4" width="5.5" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="9" style="5"/>
+    <col min="4" max="4" width="5.5" customWidth="1"/>
+    <col min="5" max="8" width="12.8181818181818"/>
+    <col min="10" max="10" width="12.8181818181818"/>
+    <col min="11" max="11" width="12.8181818181818" style="1"/>
+    <col min="12" max="12" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:12" s="10" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B2" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="D2" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="G2" s="10">
-        <f>SUM(G3:G6)</f>
-        <v>3.9493606138107422</v>
-      </c>
-      <c r="H2" s="10">
-        <v>100</v>
-      </c>
-      <c r="K2" s="11" t="s">
+    <row r="2" s="9" customFormat="1" spans="2:12">
+      <c r="B2" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="G2" s="9">
+        <f>SUM(G3:G5)</f>
+        <v>4.20603669632401</v>
+      </c>
+      <c r="H2" s="9">
+        <v>2657</v>
+      </c>
+      <c r="K2" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="L2" s="10" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12">
+      <c r="A3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="L2" s="11" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B3" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="C3" s="3"/>
-      <c r="D3" s="3">
-        <v>12</v>
+      <c r="C3" s="8"/>
+      <c r="D3" s="8">
+        <v>4.94</v>
+      </c>
+      <c r="E3">
+        <f>1/D3/(1/$D$3+1/$D$4+1/$D$5)</f>
+        <v>0.191335543838669</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="H3" s="4">
-        <f>G3/$G$2*$H$2</f>
-        <v>25.320554332340368</v>
+        <f>$H$2*E3</f>
+        <v>508.378539979344</v>
       </c>
       <c r="J3">
         <f>H3*D3</f>
-        <v>303.84665198808443</v>
-      </c>
-      <c r="K3" s="5">
+        <v>2511.38998749796</v>
+      </c>
+      <c r="K3" s="1">
         <f>J3-$H$2</f>
-        <v>203.84665198808443</v>
+        <v>-145.610012502039</v>
       </c>
       <c r="L3" s="6">
         <f>(J3-$H$2)/$H$2</f>
-        <v>2.0384665198808443</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.15">
+        <v>-0.0548024134369736</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12">
       <c r="A4" t="s">
-        <v>1</v>
-      </c>
-      <c r="B4" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="C4" s="3"/>
-      <c r="D4" s="3">
-        <v>10</v>
+        <v>6</v>
+      </c>
+      <c r="B4" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="8"/>
+      <c r="D4" s="8">
+        <v>6.4</v>
       </c>
       <c r="E4">
-        <f>$D$3/($D$3+D4)</f>
-        <v>0.54545454545454541</v>
+        <f>1/D4/(1/$D$3+1/$D$4+1/$D$5)</f>
+        <v>0.147687122900473</v>
       </c>
       <c r="F4">
         <f>D4/($D$3+D4)</f>
-        <v>0.45454545454545453</v>
+        <v>0.564373897707231</v>
       </c>
       <c r="G4">
         <f>E4/F4</f>
-        <v>1.2</v>
+        <v>0.261683120889275</v>
       </c>
       <c r="H4" s="4">
-        <f t="shared" ref="H4:H6" si="0">G4/$G$2*$H$2</f>
-        <v>30.384665198808442</v>
+        <f>$H$2*E4</f>
+        <v>392.404685546556</v>
       </c>
       <c r="J4">
-        <f t="shared" ref="J4:J6" si="1">H4*D4</f>
-        <v>303.84665198808443</v>
-      </c>
-      <c r="K4" s="5">
-        <f t="shared" ref="K4:K6" si="2">J4-$H$2</f>
-        <v>203.84665198808443</v>
+        <f>H4*D4</f>
+        <v>2511.38998749796</v>
+      </c>
+      <c r="K4" s="1">
+        <f>J4-$H$2</f>
+        <v>-145.610012502039</v>
       </c>
       <c r="L4" s="6">
-        <f t="shared" ref="L4:L6" si="3">(J4-$H$2)/$H$2</f>
-        <v>2.0384665198808443</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.15">
+        <f>(J4-$H$2)/$H$2</f>
+        <v>-0.0548024134369736</v>
+      </c>
+    </row>
+    <row r="5" ht="16" customHeight="1" spans="1:12">
       <c r="A5" t="s">
-        <v>2</v>
-      </c>
-      <c r="B5" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="C5" s="3"/>
-      <c r="D5" s="3">
-        <v>17</v>
+        <v>8</v>
+      </c>
+      <c r="B5" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="8"/>
+      <c r="D5" s="8">
+        <v>1.43</v>
       </c>
       <c r="E5">
-        <f>$D$3/($D$3+D5)</f>
-        <v>0.41379310344827586</v>
+        <f>1/D5/(1/$D$3+1/$D$4+1/$D$5)</f>
+        <v>0.660977333260858</v>
       </c>
       <c r="F5">
         <f>D5/($D$3+D5)</f>
-        <v>0.58620689655172409</v>
+        <v>0.224489795918367</v>
       </c>
       <c r="G5">
-        <f t="shared" ref="G5:G6" si="4">E5/F5</f>
-        <v>0.70588235294117652</v>
+        <f>E5/F5</f>
+        <v>2.94435357543473</v>
       </c>
       <c r="H5" s="4">
-        <f t="shared" si="0"/>
-        <v>17.87333246988732</v>
+        <f>$H$2*E5</f>
+        <v>1756.2167744741</v>
       </c>
       <c r="J5">
-        <f t="shared" si="1"/>
-        <v>303.84665198808443</v>
-      </c>
-      <c r="K5" s="5">
-        <f t="shared" si="2"/>
-        <v>203.84665198808443</v>
+        <f>H5*D5</f>
+        <v>2511.38998749796</v>
+      </c>
+      <c r="K5" s="1">
+        <f>J5-$H$2</f>
+        <v>-145.610012502039</v>
       </c>
       <c r="L5" s="6">
-        <f t="shared" si="3"/>
-        <v>2.0384665198808443</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A6" t="s">
-        <v>3</v>
-      </c>
-      <c r="B6" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="C6" s="3"/>
-      <c r="D6" s="3">
-        <v>11.5</v>
-      </c>
-      <c r="E6">
-        <f>$D$3/($D$3+D6)</f>
-        <v>0.51063829787234039</v>
-      </c>
-      <c r="F6">
-        <f>D6/($D$3+D6)</f>
-        <v>0.48936170212765956</v>
-      </c>
-      <c r="G6">
-        <f t="shared" si="4"/>
-        <v>1.0434782608695652</v>
-      </c>
-      <c r="H6" s="4">
-        <f t="shared" si="0"/>
-        <v>26.42144799896386</v>
-      </c>
-      <c r="J6">
-        <f t="shared" si="1"/>
-        <v>303.84665198808437</v>
-      </c>
-      <c r="K6" s="5">
-        <f t="shared" si="2"/>
-        <v>203.84665198808437</v>
-      </c>
-      <c r="L6" s="6">
-        <f t="shared" si="3"/>
-        <v>2.0384665198808438</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="L7" s="6"/>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="B10" s="1"/>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="B11" s="1"/>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="B12" s="1"/>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="B13" s="1"/>
+        <f>(J5-$H$2)/$H$2</f>
+        <v>-0.0548024134369736</v>
+      </c>
+    </row>
+    <row r="6" spans="12:12">
+      <c r="L6" s="6"/>
+    </row>
+    <row r="7" spans="5:5">
+      <c r="E7">
+        <f>SUM(E3:E6)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="2:2">
+      <c r="B9" s="5"/>
+    </row>
+    <row r="10" spans="2:2">
+      <c r="B10" s="5"/>
+    </row>
+    <row r="11" spans="2:2">
+      <c r="B11" s="5"/>
+    </row>
+    <row r="12" spans="2:2">
+      <c r="B12" s="5"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A2:L12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H2" sqref="H2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
+  <cols>
+    <col min="4" max="4" width="5.5" customWidth="1"/>
+    <col min="5" max="8" width="12.8181818181818"/>
+    <col min="10" max="10" width="12.8181818181818"/>
+    <col min="11" max="11" width="12.8181818181818" style="1"/>
+    <col min="12" max="12" width="9" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" s="9" customFormat="1" spans="2:12">
+      <c r="B2" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="G2" s="9">
+        <f>SUM(G3:G5)</f>
+        <v>3.11312728762746</v>
+      </c>
+      <c r="H2" s="9">
+        <v>2019</v>
+      </c>
+      <c r="K2" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="L2" s="10" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12">
+      <c r="A3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="8"/>
+      <c r="D3" s="8">
+        <v>4.94</v>
+      </c>
+      <c r="E3">
+        <f>1/D3/(1/$D$3+1/$D$4+1/$D$5)</f>
+        <v>0.252052300852427</v>
+      </c>
+      <c r="G3">
+        <v>1</v>
+      </c>
+      <c r="H3" s="4">
+        <f>$H$2*E3</f>
+        <v>508.89359542105</v>
+      </c>
+      <c r="J3">
+        <f>H3*D3</f>
+        <v>2513.93436137999</v>
+      </c>
+      <c r="K3" s="1">
+        <f>J3-$H$2</f>
+        <v>494.934361379987</v>
+      </c>
+      <c r="L3" s="6">
+        <f>(J3-$H$2)/$H$2</f>
+        <v>0.245138366210989</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12">
+      <c r="A4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="8"/>
+      <c r="D4" s="8">
+        <v>6.4</v>
+      </c>
+      <c r="E4">
+        <f>1/D4/(1/$D$3+1/$D$4+1/$D$5)</f>
+        <v>0.194552869720467</v>
+      </c>
+      <c r="F4">
+        <f>D4/($D$3+D4)</f>
+        <v>0.564373897707231</v>
+      </c>
+      <c r="G4">
+        <f>E4/F4</f>
+        <v>0.344723366035952</v>
+      </c>
+      <c r="H4" s="4">
+        <f>$H$2*E4</f>
+        <v>392.802243965623</v>
+      </c>
+      <c r="J4">
+        <f>H4*D4</f>
+        <v>2513.93436137999</v>
+      </c>
+      <c r="K4" s="1">
+        <f>J4-$H$2</f>
+        <v>494.934361379987</v>
+      </c>
+      <c r="L4" s="6">
+        <f>(J4-$H$2)/$H$2</f>
+        <v>0.245138366210989</v>
+      </c>
+    </row>
+    <row r="5" ht="16" customHeight="1" spans="1:12">
+      <c r="A5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="8"/>
+      <c r="D5" s="8">
+        <v>2.25</v>
+      </c>
+      <c r="E5">
+        <f>1/D5/(1/$D$3+1/$D$4+1/$D$5)</f>
+        <v>0.553394829427106</v>
+      </c>
+      <c r="F5">
+        <f>D5/($D$3+D5)</f>
+        <v>0.312934631432545</v>
+      </c>
+      <c r="G5">
+        <f>E5/F5</f>
+        <v>1.76840392159151</v>
+      </c>
+      <c r="H5" s="4">
+        <f>$H$2*E5</f>
+        <v>1117.30416061333</v>
+      </c>
+      <c r="J5">
+        <f>H5*D5</f>
+        <v>2513.93436137999</v>
+      </c>
+      <c r="K5" s="1">
+        <f>J5-$H$2</f>
+        <v>494.934361379986</v>
+      </c>
+      <c r="L5" s="6">
+        <f>(J5-$H$2)/$H$2</f>
+        <v>0.245138366210989</v>
+      </c>
+    </row>
+    <row r="6" spans="12:12">
+      <c r="L6" s="6"/>
+    </row>
+    <row r="7" spans="5:5">
+      <c r="E7">
+        <f>SUM(E3:E6)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="2:2">
+      <c r="B9" s="5"/>
+    </row>
+    <row r="10" spans="2:2">
+      <c r="B10" s="5"/>
+    </row>
+    <row r="11" spans="2:2">
+      <c r="B11" s="5"/>
+    </row>
+    <row r="12" spans="2:2">
+      <c r="B12" s="5"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A2:L13"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H2" sqref="H2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
+  <cols>
+    <col min="4" max="4" width="5.5" customWidth="1"/>
+    <col min="5" max="8" width="12.8181818181818"/>
+    <col min="10" max="10" width="12.8181818181818"/>
+    <col min="11" max="11" width="12.8181818181818" style="1"/>
+    <col min="12" max="12" width="9" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" s="9" customFormat="1" spans="2:12">
+      <c r="B2" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="G2" s="9">
+        <f>SUM(G3:G5)</f>
+        <v>4.67297172951796</v>
+      </c>
+      <c r="H2" s="9">
+        <v>2500</v>
+      </c>
+      <c r="K2" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="L2" s="10" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12">
+      <c r="A3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="8"/>
+      <c r="D3" s="8">
+        <v>5.45</v>
+      </c>
+      <c r="E3">
+        <f>1/D3/(1/$D$3+1/$D$4+1/$D$5)</f>
+        <v>0.172483647137894</v>
+      </c>
+      <c r="G3">
+        <v>1</v>
+      </c>
+      <c r="H3" s="4">
+        <f>$H$2*E3</f>
+        <v>431.209117844735</v>
+      </c>
+      <c r="I3">
+        <v>429</v>
+      </c>
+      <c r="J3">
+        <f>H3*D3</f>
+        <v>2350.08969225381</v>
+      </c>
+      <c r="K3" s="1">
+        <f>J3-$H$2</f>
+        <v>-149.910307746192</v>
+      </c>
+      <c r="L3" s="6">
+        <f>(J3-$H$2)/$H$2</f>
+        <v>-0.0599641230984769</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12">
+      <c r="A4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="8"/>
+      <c r="D4" s="8">
+        <v>6.65</v>
+      </c>
+      <c r="E4">
+        <f>1/D4/(1/$D$3+1/$D$4+1/$D$5)</f>
+        <v>0.141358778481432</v>
+      </c>
+      <c r="F4">
+        <f>D4/($D$3+D4)</f>
+        <v>0.549586776859504</v>
+      </c>
+      <c r="G4">
+        <f>E4/F4</f>
+        <v>0.257209205958696</v>
+      </c>
+      <c r="H4" s="4">
+        <f>$H$2*E4</f>
+        <v>353.39694620358</v>
+      </c>
+      <c r="I4">
+        <v>352</v>
+      </c>
+      <c r="J4">
+        <f>H4*D4</f>
+        <v>2350.08969225381</v>
+      </c>
+      <c r="K4" s="1">
+        <f>J4-$H$2</f>
+        <v>-149.910307746192</v>
+      </c>
+      <c r="L4" s="6">
+        <f>(J4-$H$2)/$H$2</f>
+        <v>-0.0599641230984769</v>
+      </c>
+    </row>
+    <row r="5" ht="16" customHeight="1" spans="1:12">
+      <c r="A5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="8"/>
+      <c r="D5" s="8">
+        <v>1.37</v>
+      </c>
+      <c r="E5">
+        <f>1/D5/(1/$D$3+1/$D$4+1/$D$5)</f>
+        <v>0.686157574380674</v>
+      </c>
+      <c r="F5">
+        <f>D5/($D$3+D5)</f>
+        <v>0.200879765395894</v>
+      </c>
+      <c r="G5">
+        <f>E5/F5</f>
+        <v>3.41576252355927</v>
+      </c>
+      <c r="H5" s="4">
+        <f>$H$2*E5</f>
+        <v>1715.39393595168</v>
+      </c>
+      <c r="J5">
+        <f>H5*D5</f>
+        <v>2350.08969225381</v>
+      </c>
+      <c r="K5" s="1">
+        <f>J5-$H$2</f>
+        <v>-149.910307746192</v>
+      </c>
+      <c r="L5" s="6">
+        <f>(J5-$H$2)/$H$2</f>
+        <v>-0.0599641230984767</v>
+      </c>
+    </row>
+    <row r="6" spans="12:12">
+      <c r="L6" s="6"/>
+    </row>
+    <row r="7" spans="5:5">
+      <c r="E7">
+        <f>SUM(E3:E6)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="2:2">
+      <c r="B9" s="5"/>
+    </row>
+    <row r="10" spans="2:2">
+      <c r="B10" s="5"/>
+    </row>
+    <row r="11" spans="2:2">
+      <c r="B11" s="5"/>
+    </row>
+    <row r="12" spans="2:9">
+      <c r="B12" s="5"/>
+      <c r="I12">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="13" spans="9:9">
+      <c r="I13">
+        <v>429</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A2:L13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
   <cols>
-    <col min="4" max="4" width="5.5" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="9" style="5"/>
+    <col min="4" max="4" width="5.5" customWidth="1"/>
+    <col min="11" max="12" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="2" spans="7:12">
       <c r="G2">
         <f>SUM(G3:G6)</f>
-        <v>3.9493606138107422</v>
+        <v>3.94936061381074</v>
       </c>
       <c r="H2">
         <v>400</v>
       </c>
-      <c r="K2" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="L2" s="5" t="s">
+      <c r="K2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12">
+      <c r="A3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B3" s="2">
-        <v>8.3333333333333329E-2</v>
-      </c>
-      <c r="C3" s="3"/>
-      <c r="D3" s="3">
+      <c r="B3" s="7">
+        <v>0.0833333333333333</v>
+      </c>
+      <c r="C3" s="8"/>
+      <c r="D3" s="8">
         <v>12</v>
       </c>
       <c r="G3">
@@ -761,39 +1667,39 @@
       </c>
       <c r="H3" s="4">
         <f>G3/$G$2*$H$2</f>
-        <v>101.28221732936147</v>
+        <v>101.282217329361</v>
       </c>
       <c r="J3">
         <f>H3*D3</f>
-        <v>1215.3866079523377</v>
-      </c>
-      <c r="K3" s="5">
+        <v>1215.38660795234</v>
+      </c>
+      <c r="K3" s="1">
         <f>J3-$H$2</f>
-        <v>815.38660795233773</v>
+        <v>815.386607952338</v>
       </c>
       <c r="L3" s="6">
         <f>(J3-$H$2)/$H$2</f>
-        <v>2.0384665198808443</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.15">
+        <v>2.03846651988084</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12">
       <c r="A4" t="s">
-        <v>1</v>
-      </c>
-      <c r="B4" s="2">
-        <v>8.3333333333333329E-2</v>
-      </c>
-      <c r="C4" s="3"/>
-      <c r="D4" s="3">
+        <v>6</v>
+      </c>
+      <c r="B4" s="7">
+        <v>0.0833333333333333</v>
+      </c>
+      <c r="C4" s="8"/>
+      <c r="D4" s="8">
         <v>10</v>
       </c>
       <c r="E4">
         <f>$D$3/($D$3+D4)</f>
-        <v>0.54545454545454541</v>
+        <v>0.545454545454545</v>
       </c>
       <c r="F4">
         <f>D4/($D$3+D4)</f>
-        <v>0.45454545454545453</v>
+        <v>0.454545454545455</v>
       </c>
       <c r="G4">
         <f>E4/F4</f>
@@ -801,161 +1707,162 @@
       </c>
       <c r="H4" s="4">
         <f t="shared" ref="H4:H6" si="0">G4/$G$2*$H$2</f>
-        <v>121.53866079523377</v>
+        <v>121.538660795234</v>
       </c>
       <c r="J4">
         <f t="shared" ref="J4:J6" si="1">H4*D4</f>
-        <v>1215.3866079523377</v>
-      </c>
-      <c r="K4" s="5">
+        <v>1215.38660795234</v>
+      </c>
+      <c r="K4" s="1">
         <f t="shared" ref="K4:K6" si="2">J4-$H$2</f>
-        <v>815.38660795233773</v>
+        <v>815.386607952338</v>
       </c>
       <c r="L4" s="6">
         <f t="shared" ref="L4:L6" si="3">(J4-$H$2)/$H$2</f>
-        <v>2.0384665198808443</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.15">
+        <v>2.03846651988084</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12">
       <c r="A5" t="s">
-        <v>2</v>
-      </c>
-      <c r="B5" s="2">
-        <v>1.3888888888888889E-3</v>
-      </c>
-      <c r="C5" s="3"/>
-      <c r="D5" s="3">
+        <v>8</v>
+      </c>
+      <c r="B5" s="7">
+        <v>0.00138888888888889</v>
+      </c>
+      <c r="C5" s="8"/>
+      <c r="D5" s="8">
         <v>17</v>
       </c>
       <c r="E5">
         <f>$D$3/($D$3+D5)</f>
-        <v>0.41379310344827586</v>
+        <v>0.413793103448276</v>
       </c>
       <c r="F5">
         <f>D5/($D$3+D5)</f>
-        <v>0.58620689655172409</v>
+        <v>0.586206896551724</v>
       </c>
       <c r="G5">
         <f t="shared" ref="G5:G6" si="4">E5/F5</f>
-        <v>0.70588235294117652</v>
+        <v>0.705882352941177</v>
       </c>
       <c r="H5" s="4">
         <f t="shared" si="0"/>
-        <v>71.493329879549279</v>
+        <v>71.4933298795493</v>
       </c>
       <c r="J5">
         <f t="shared" si="1"/>
-        <v>1215.3866079523377</v>
-      </c>
-      <c r="K5" s="5">
+        <v>1215.38660795234</v>
+      </c>
+      <c r="K5" s="1">
         <f t="shared" si="2"/>
-        <v>815.38660795233773</v>
+        <v>815.386607952338</v>
       </c>
       <c r="L5" s="6">
         <f t="shared" si="3"/>
-        <v>2.0384665198808443</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.15">
+        <v>2.03846651988084</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12">
       <c r="A6" t="s">
-        <v>3</v>
-      </c>
-      <c r="B6" s="2">
-        <v>4.3055555555555562E-2</v>
-      </c>
-      <c r="C6" s="3"/>
-      <c r="D6" s="3">
+        <v>10</v>
+      </c>
+      <c r="B6" s="7">
+        <v>0.0430555555555556</v>
+      </c>
+      <c r="C6" s="8"/>
+      <c r="D6" s="8">
         <v>11.5</v>
       </c>
       <c r="E6">
         <f>$D$3/($D$3+D6)</f>
-        <v>0.51063829787234039</v>
+        <v>0.51063829787234</v>
       </c>
       <c r="F6">
         <f>D6/($D$3+D6)</f>
-        <v>0.48936170212765956</v>
+        <v>0.48936170212766</v>
       </c>
       <c r="G6">
         <f t="shared" si="4"/>
-        <v>1.0434782608695652</v>
+        <v>1.04347826086957</v>
       </c>
       <c r="H6" s="4">
         <f t="shared" si="0"/>
-        <v>105.68579199585544</v>
+        <v>105.685791995855</v>
       </c>
       <c r="J6">
         <f t="shared" si="1"/>
-        <v>1215.3866079523375</v>
-      </c>
-      <c r="K6" s="5">
+        <v>1215.38660795234</v>
+      </c>
+      <c r="K6" s="1">
         <f t="shared" si="2"/>
-        <v>815.3866079523375</v>
+        <v>815.386607952338</v>
       </c>
       <c r="L6" s="6">
         <f t="shared" si="3"/>
-        <v>2.0384665198808438</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.15">
+        <v>2.03846651988084</v>
+      </c>
+    </row>
+    <row r="7" spans="12:12">
       <c r="L7" s="6"/>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="B10" s="1"/>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="B11" s="1"/>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="B12" s="1"/>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="B13" s="1"/>
+    <row r="10" spans="2:2">
+      <c r="B10" s="5"/>
+    </row>
+    <row r="11" spans="2:2">
+      <c r="B11" s="5"/>
+    </row>
+    <row r="12" spans="2:2">
+      <c r="B12" s="5"/>
+    </row>
+    <row r="13" spans="2:2">
+      <c r="B13" s="5"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A2:L13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
   <cols>
-    <col min="4" max="4" width="5.5" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="9" style="5"/>
+    <col min="4" max="4" width="5.5" customWidth="1"/>
+    <col min="11" max="12" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="2" spans="7:12">
       <c r="G2">
         <f>SUM(G3:G8)</f>
-        <v>4.7035820021784724</v>
+        <v>4.70358200217847</v>
       </c>
       <c r="H2">
         <v>400</v>
       </c>
-      <c r="K2" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="L2" s="5" t="s">
+      <c r="K2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12">
+      <c r="A3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B3" s="7">
-        <v>8.3333333333333329E-2</v>
-      </c>
-      <c r="C3" s="8"/>
-      <c r="D3" s="8">
+      <c r="B3" s="2">
+        <v>0.0833333333333333</v>
+      </c>
+      <c r="C3" s="3"/>
+      <c r="D3" s="3">
         <v>12</v>
       </c>
       <c r="G3">
@@ -963,39 +1870,39 @@
       </c>
       <c r="H3" s="4">
         <f>G3/$G$2*$H$2</f>
-        <v>85.041570406285956</v>
+        <v>85.041570406286</v>
       </c>
       <c r="J3">
         <f>H3*D3</f>
-        <v>1020.4988448754315</v>
-      </c>
-      <c r="K3" s="5">
+        <v>1020.49884487543</v>
+      </c>
+      <c r="K3" s="1">
         <f>J3-$H$2</f>
-        <v>620.49884487543147</v>
+        <v>620.498844875431</v>
       </c>
       <c r="L3" s="6">
         <f>(J3-$H$2)/$H$2</f>
-        <v>1.5512471121885787</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.15">
+        <v>1.55124711218858</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12">
       <c r="A4" t="s">
-        <v>1</v>
-      </c>
-      <c r="B4" s="7">
-        <v>8.3333333333333329E-2</v>
-      </c>
-      <c r="C4" s="8"/>
-      <c r="D4" s="8">
+        <v>6</v>
+      </c>
+      <c r="B4" s="2">
+        <v>0.0833333333333333</v>
+      </c>
+      <c r="C4" s="3"/>
+      <c r="D4" s="3">
         <v>10</v>
       </c>
       <c r="E4">
         <f>$D$3/($D$3+D4)</f>
-        <v>0.54545454545454541</v>
+        <v>0.545454545454545</v>
       </c>
       <c r="F4">
         <f>D4/($D$3+D4)</f>
-        <v>0.45454545454545453</v>
+        <v>0.454545454545455</v>
       </c>
       <c r="G4">
         <f>E4/F4</f>
@@ -1003,196 +1910,196 @@
       </c>
       <c r="H4" s="4">
         <f t="shared" ref="H4:H8" si="0">G4/$G$2*$H$2</f>
-        <v>102.04988448754312</v>
+        <v>102.049884487543</v>
       </c>
       <c r="J4">
         <f t="shared" ref="J4:J8" si="1">H4*D4</f>
-        <v>1020.4988448754312</v>
-      </c>
-      <c r="K4" s="5">
+        <v>1020.49884487543</v>
+      </c>
+      <c r="K4" s="1">
         <f t="shared" ref="K4:K8" si="2">J4-$H$2</f>
-        <v>620.49884487543125</v>
+        <v>620.498844875431</v>
       </c>
       <c r="L4" s="6">
         <f t="shared" ref="L4:L6" si="3">(J4-$H$2)/$H$2</f>
-        <v>1.551247112188578</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.15">
+        <v>1.55124711218858</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12">
       <c r="A5" t="s">
-        <v>2</v>
-      </c>
-      <c r="B5" s="7">
-        <v>1.3888888888888889E-3</v>
-      </c>
-      <c r="C5" s="8"/>
-      <c r="D5" s="8">
+        <v>8</v>
+      </c>
+      <c r="B5" s="2">
+        <v>0.00138888888888889</v>
+      </c>
+      <c r="C5" s="3"/>
+      <c r="D5" s="3">
         <v>17</v>
       </c>
       <c r="E5">
         <f>$D$3/($D$3+D5)</f>
-        <v>0.41379310344827586</v>
+        <v>0.413793103448276</v>
       </c>
       <c r="F5">
         <f>D5/($D$3+D5)</f>
-        <v>0.58620689655172409</v>
+        <v>0.586206896551724</v>
       </c>
       <c r="G5">
-        <f t="shared" ref="G5:G6" si="4">E5/F5</f>
-        <v>0.70588235294117652</v>
+        <f t="shared" ref="G5:G8" si="4">E5/F5</f>
+        <v>0.705882352941177</v>
       </c>
       <c r="H5" s="4">
         <f t="shared" si="0"/>
-        <v>60.029343816201852</v>
+        <v>60.0293438162019</v>
       </c>
       <c r="J5">
         <f t="shared" si="1"/>
-        <v>1020.4988448754315</v>
-      </c>
-      <c r="K5" s="5">
+        <v>1020.49884487543</v>
+      </c>
+      <c r="K5" s="1">
         <f t="shared" si="2"/>
-        <v>620.49884487543147</v>
+        <v>620.498844875431</v>
       </c>
       <c r="L5" s="6">
         <f t="shared" si="3"/>
-        <v>1.5512471121885787</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.15">
+        <v>1.55124711218858</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12">
       <c r="A6" t="s">
-        <v>3</v>
-      </c>
-      <c r="B6" s="7">
-        <v>4.3055555555555562E-2</v>
-      </c>
-      <c r="C6" s="8"/>
-      <c r="D6" s="8">
+        <v>10</v>
+      </c>
+      <c r="B6" s="2">
+        <v>0.0430555555555556</v>
+      </c>
+      <c r="C6" s="3"/>
+      <c r="D6" s="3">
         <v>11.5</v>
       </c>
       <c r="E6">
         <f>$D$3/($D$3+D6)</f>
-        <v>0.51063829787234039</v>
+        <v>0.51063829787234</v>
       </c>
       <c r="F6">
         <f>D6/($D$3+D6)</f>
-        <v>0.48936170212765956</v>
+        <v>0.48936170212766</v>
       </c>
       <c r="G6">
-        <f>E6/F6</f>
-        <v>1.0434782608695652</v>
+        <f t="shared" si="4"/>
+        <v>1.04347826086957</v>
       </c>
       <c r="H6" s="4">
         <f t="shared" si="0"/>
-        <v>88.739029989167946</v>
+        <v>88.7390299891679</v>
       </c>
       <c r="J6">
         <f t="shared" si="1"/>
-        <v>1020.4988448754314</v>
-      </c>
-      <c r="K6" s="5">
+        <v>1020.49884487543</v>
+      </c>
+      <c r="K6" s="1">
         <f t="shared" si="2"/>
-        <v>620.49884487543136</v>
+        <v>620.498844875431</v>
       </c>
       <c r="L6" s="6">
         <f t="shared" si="3"/>
-        <v>1.5512471121885785</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.15">
+        <v>1.55124711218858</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12">
       <c r="A7" t="s">
-        <v>6</v>
-      </c>
-      <c r="B7" s="7">
-        <v>0.12569444444444444</v>
-      </c>
-      <c r="C7" s="8"/>
-      <c r="D7" s="8">
+        <v>11</v>
+      </c>
+      <c r="B7" s="2">
+        <v>0.125694444444444</v>
+      </c>
+      <c r="C7" s="3"/>
+      <c r="D7" s="3">
         <v>41</v>
       </c>
       <c r="E7">
         <f t="shared" ref="E7:E8" si="5">$D$3/($D$3+D7)</f>
-        <v>0.22641509433962265</v>
+        <v>0.226415094339623</v>
       </c>
       <c r="F7">
         <f t="shared" ref="F7:F8" si="6">D7/($D$3+D7)</f>
-        <v>0.77358490566037741</v>
+        <v>0.773584905660377</v>
       </c>
       <c r="G7">
-        <f>E7/F7</f>
-        <v>0.29268292682926828</v>
+        <f t="shared" si="4"/>
+        <v>0.292682926829268</v>
       </c>
       <c r="H7" s="4">
         <f t="shared" si="0"/>
-        <v>24.890215728669059</v>
+        <v>24.8902157286691</v>
       </c>
       <c r="J7">
         <f t="shared" si="1"/>
-        <v>1020.4988448754314</v>
-      </c>
-      <c r="K7" s="5">
+        <v>1020.49884487543</v>
+      </c>
+      <c r="K7" s="1">
         <f t="shared" si="2"/>
-        <v>620.49884487543136</v>
+        <v>620.498844875431</v>
       </c>
       <c r="L7" s="6">
         <f t="shared" ref="L7:L8" si="7">(J7-$H$2)/$H$2</f>
-        <v>1.5512471121885785</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.15">
+        <v>1.55124711218858</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12">
       <c r="A8" t="s">
-        <v>7</v>
-      </c>
-      <c r="B8" s="7">
-        <v>4.3750000000000004E-2</v>
-      </c>
-      <c r="C8" s="8"/>
-      <c r="D8" s="8">
+        <v>12</v>
+      </c>
+      <c r="B8" s="2">
+        <v>0.04375</v>
+      </c>
+      <c r="C8" s="3"/>
+      <c r="D8" s="3">
         <v>26</v>
       </c>
       <c r="E8">
         <f t="shared" si="5"/>
-        <v>0.31578947368421051</v>
+        <v>0.315789473684211</v>
       </c>
       <c r="F8">
         <f t="shared" si="6"/>
-        <v>0.68421052631578949</v>
+        <v>0.684210526315789</v>
       </c>
       <c r="G8">
-        <f>E8/F8</f>
-        <v>0.46153846153846151</v>
+        <f t="shared" si="4"/>
+        <v>0.461538461538462</v>
       </c>
       <c r="H8" s="4">
         <f t="shared" si="0"/>
-        <v>39.249955572131974</v>
+        <v>39.249955572132</v>
       </c>
       <c r="J8">
         <f t="shared" si="1"/>
-        <v>1020.4988448754314</v>
-      </c>
-      <c r="K8" s="5">
-        <f>J8-$H$2</f>
-        <v>620.49884487543136</v>
+        <v>1020.49884487543</v>
+      </c>
+      <c r="K8" s="1">
+        <f t="shared" si="2"/>
+        <v>620.498844875431</v>
       </c>
       <c r="L8" s="6">
         <f t="shared" si="7"/>
-        <v>1.5512471121885785</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="B10" s="1"/>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="B11" s="1"/>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="B12" s="1"/>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="B13" s="1"/>
+        <v>1.55124711218858</v>
+      </c>
+    </row>
+    <row r="10" spans="2:2">
+      <c r="B10" s="5"/>
+    </row>
+    <row r="11" spans="2:2">
+      <c r="B11" s="5"/>
+    </row>
+    <row r="12" spans="2:2">
+      <c r="B12" s="5"/>
+    </row>
+    <row r="13" spans="2:2">
+      <c r="B13" s="5"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>